--- a/Community-Each-Stage/Cloudnloud-Community-Each Stages-v2.0.xlsx
+++ b/Community-Each-Stage/Cloudnloud-Community-Each Stages-v2.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>Sl.No</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>Exception</t>
+  </si>
+  <si>
+    <t>1. Look for more meetup in their location to present
+2. Look for more conferences to present
+3. start prepare kubernetes networking &amp; kubernetes security usecases course syllabus [each course should have minimum 50 usecases]
+4. take more different style photos and start write your career story</t>
   </si>
 </sst>
 </file>
@@ -494,6 +500,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,24 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,26 +807,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:D16"/>
+  <dimension ref="C7:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="64.453125" customWidth="1"/>
+    <col min="5" max="5" width="81.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
         <v>79</v>
       </c>
@@ -828,7 +835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
         <v>80</v>
       </c>
@@ -836,35 +843,38 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:5" ht="87" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="13" t="s">
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="16" spans="3:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="16" spans="3:5" ht="58" x14ac:dyDescent="0.35">
       <c r="C16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -882,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1543,11 +1553,11 @@
     </row>
     <row r="49" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
